--- a/Documentação/Planejamentos/Backlog.xlsx
+++ b/Documentação/Planejamentos/Backlog.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22812"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFEEA582-5E1D-4C47-92FB-65700CBAC5F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gi/Documents/projeto-bandtec/Documentação/Planejamentos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -150,9 +160,6 @@
     <t>O software deve permitir que o cliente solicite serviço da Chameleon;</t>
   </si>
   <si>
-    <t>Sprint 3 (dd-mm- a dd-mm)</t>
-  </si>
-  <si>
     <t>RF15</t>
   </si>
   <si>
@@ -184,13 +191,16 @@
   </si>
   <si>
     <t>O sensor usado deve ser o DHT11 (temperatura e umidade);</t>
+  </si>
+  <si>
+    <t>Sprint 3 (dd-mm-aaaa)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,21 +462,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -503,6 +498,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,7 +532,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -558,7 +567,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -594,7 +602,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -631,7 +638,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -668,7 +674,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -704,7 +709,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -755,7 +759,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -813,18 +816,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D834528-9566-4967-8F79-3A118EBB5ACC}" name="Table1" displayName="Table1" ref="A3:F21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A3:F21" xr:uid="{267D0ADA-39DF-4F67-98E7-730114626F6B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:F21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="A3:F21"/>
+  <sortState ref="A4:F21">
     <sortCondition ref="E3:E21"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E2D6C3B2-ABBC-4D8F-AD3D-816BC13136B3}" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{F3ECC90B-4458-4DCE-9863-F9E9A887889C}" name="Requisito" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{E3959756-0EFB-4016-A90E-A4F3AAA9A002}" name="Classificação" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{ACC70232-0A75-4177-8745-297215CE1861}" name="Tamanho" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{721D5129-D307-4EBF-922C-1F9C59E7EDC9}" name="Ordem de Execução" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{DBD33619-F1A1-40D5-9760-3708EDCBC9D7}" name="Sprint" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" name="Requisito" dataDxfId="4"/>
+    <tableColumn id="3" name="Classificação" dataDxfId="3"/>
+    <tableColumn id="4" name="Tamanho" dataDxfId="2"/>
+    <tableColumn id="5" name="Ordem de Execução" dataDxfId="1"/>
+    <tableColumn id="6" name="Sprint" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1126,393 +1129,393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="107.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="107.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="53.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.45">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" s="13" customFormat="1" ht="24">
-      <c r="A3" s="33" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="1:6" s="13" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="25">
         <v>1</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="21">
         <v>2</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="21">
         <v>3</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="21">
         <v>4</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="21">
         <v>5</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="21">
+        <v>6</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="21">
         <v>7</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F10" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="24" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E11" s="21">
         <v>8</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F11" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="24" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E12" s="21">
         <v>9</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F12" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="24" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E13" s="21">
         <v>10</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F13" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="24" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="21">
+        <v>11</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="26">
-        <v>11</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="24" t="s">
+      <c r="E15" s="21">
+        <v>13</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="26">
-        <v>12</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="26">
-        <v>14</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="28" t="s">
+      <c r="E16" s="25"/>
+      <c r="F16" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D17" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="32" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="32" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="32" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="32" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-    </row>
-    <row r="22" spans="1:6" ht="24">
-      <c r="A22" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>10</v>
@@ -1521,26 +1524,26 @@
       <c r="E23" s="3"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="34"/>
-      <c r="B24" s="22" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="14">
+        <v>12</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="19">
-        <v>13</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>10</v>
@@ -1549,7 +1552,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1558,7 +1561,7 @@
       <c r="F26" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F3">
+  <sortState ref="A3:F3">
     <sortCondition ref="A3"/>
   </sortState>
   <mergeCells count="3">
